--- a/StockPredictor/bin/Debug/Packages/Data/Repeater/GILD/GILDNoun.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/Repeater/GILD/GILDNoun.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>UpDown</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Noun</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -134,8 +143,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,13 +427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -438,7 +449,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -512,6 +523,770 @@
       </c>
       <c r="Y1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42651.533784722225</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>6722</v>
+      </c>
+      <c r="F2">
+        <v>1210</v>
+      </c>
+      <c r="G2">
+        <v>49</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <v>88</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>40148</v>
+      </c>
+      <c r="L2">
+        <v>119</v>
+      </c>
+      <c r="M2">
+        <v>116</v>
+      </c>
+      <c r="N2">
+        <v>113</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2">
+        <v>35.550967665213591</v>
+      </c>
+      <c r="R2">
+        <v>-24.44</v>
+      </c>
+      <c r="S2" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U2">
+        <v>6.53</v>
+      </c>
+      <c r="V2">
+        <v>1.88</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>-1.210000000000008</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42651.537662037037</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>6723</v>
+      </c>
+      <c r="F3">
+        <v>1215</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>48</v>
+      </c>
+      <c r="I3">
+        <v>89</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>45320</v>
+      </c>
+      <c r="L3">
+        <v>120</v>
+      </c>
+      <c r="M3">
+        <v>115</v>
+      </c>
+      <c r="N3">
+        <v>106</v>
+      </c>
+      <c r="O3">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>35.550967665213591</v>
+      </c>
+      <c r="R3">
+        <v>-24.44</v>
+      </c>
+      <c r="S3" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U3">
+        <v>6.53</v>
+      </c>
+      <c r="V3">
+        <v>1.88</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>-1.210000000000008</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42651.541006944448</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>6723</v>
+      </c>
+      <c r="F4">
+        <v>1215</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <v>89</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>46745</v>
+      </c>
+      <c r="L4">
+        <v>120</v>
+      </c>
+      <c r="M4">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>106</v>
+      </c>
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>35.550967665213591</v>
+      </c>
+      <c r="R4">
+        <v>-24.44</v>
+      </c>
+      <c r="S4" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U4">
+        <v>6.53</v>
+      </c>
+      <c r="V4">
+        <v>1.88</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>-1.210000000000008</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42651.546840277777</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>6722</v>
+      </c>
+      <c r="F5">
+        <v>1210</v>
+      </c>
+      <c r="G5">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>88</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>53010</v>
+      </c>
+      <c r="L5">
+        <v>119</v>
+      </c>
+      <c r="M5">
+        <v>116</v>
+      </c>
+      <c r="N5">
+        <v>113</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>35.550967665213591</v>
+      </c>
+      <c r="R5">
+        <v>-24.44</v>
+      </c>
+      <c r="S5" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U5">
+        <v>6.53</v>
+      </c>
+      <c r="V5">
+        <v>1.88</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>-1.210000000000008</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42651.556840277779</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>6722</v>
+      </c>
+      <c r="F6">
+        <v>1210</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="I6">
+        <v>88</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>39181</v>
+      </c>
+      <c r="L6">
+        <v>119</v>
+      </c>
+      <c r="M6">
+        <v>116</v>
+      </c>
+      <c r="N6">
+        <v>113</v>
+      </c>
+      <c r="O6">
+        <v>14</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>35.550967665213591</v>
+      </c>
+      <c r="R6">
+        <v>-24.44</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U6">
+        <v>6.53</v>
+      </c>
+      <c r="V6">
+        <v>1.88</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>-1.210000000000008</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42651.597777777781</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>6685</v>
+      </c>
+      <c r="F7">
+        <v>1207</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>49</v>
+      </c>
+      <c r="I7">
+        <v>88</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>45657</v>
+      </c>
+      <c r="L7">
+        <v>117</v>
+      </c>
+      <c r="M7">
+        <v>115</v>
+      </c>
+      <c r="N7">
+        <v>111</v>
+      </c>
+      <c r="O7">
+        <v>14</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>35.550967665213591</v>
+      </c>
+      <c r="R7">
+        <v>-24.44</v>
+      </c>
+      <c r="S7" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U7">
+        <v>6.53</v>
+      </c>
+      <c r="V7">
+        <v>1.88</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>-1.210000000000008</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42651.667569444442</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>7135</v>
+      </c>
+      <c r="F8">
+        <v>1289</v>
+      </c>
+      <c r="G8">
+        <v>52</v>
+      </c>
+      <c r="H8">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>89</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>32222</v>
+      </c>
+      <c r="L8">
+        <v>125</v>
+      </c>
+      <c r="M8">
+        <v>113</v>
+      </c>
+      <c r="N8">
+        <v>122</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8">
+        <v>35.550967665213591</v>
+      </c>
+      <c r="R8">
+        <v>-24.44</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U8">
+        <v>6.53</v>
+      </c>
+      <c r="V8">
+        <v>1.88</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>-1.210000000000008</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42651.671331018515</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>7135</v>
+      </c>
+      <c r="F9">
+        <v>1289</v>
+      </c>
+      <c r="G9">
+        <v>52</v>
+      </c>
+      <c r="H9">
+        <v>47</v>
+      </c>
+      <c r="I9">
+        <v>89</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>49615</v>
+      </c>
+      <c r="L9">
+        <v>125</v>
+      </c>
+      <c r="M9">
+        <v>113</v>
+      </c>
+      <c r="N9">
+        <v>122</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9">
+        <v>35.550967665213591</v>
+      </c>
+      <c r="R9">
+        <v>-24.44</v>
+      </c>
+      <c r="S9" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U9">
+        <v>6.53</v>
+      </c>
+      <c r="V9">
+        <v>1.88</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>-1.210000000000008</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42651.674942129626</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>7135</v>
+      </c>
+      <c r="F10">
+        <v>1289</v>
+      </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>89</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>35723</v>
+      </c>
+      <c r="L10">
+        <v>125</v>
+      </c>
+      <c r="M10">
+        <v>113</v>
+      </c>
+      <c r="N10">
+        <v>122</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10">
+        <v>35.550967665213591</v>
+      </c>
+      <c r="R10">
+        <v>-24.44</v>
+      </c>
+      <c r="S10" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U10">
+        <v>6.53</v>
+      </c>
+      <c r="V10">
+        <v>1.88</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>-1.210000000000008</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42651.677430555559</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>7135</v>
+      </c>
+      <c r="F11">
+        <v>1289</v>
+      </c>
+      <c r="G11">
+        <v>52</v>
+      </c>
+      <c r="H11">
+        <v>47</v>
+      </c>
+      <c r="I11">
+        <v>89</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>39192</v>
+      </c>
+      <c r="L11">
+        <v>125</v>
+      </c>
+      <c r="M11">
+        <v>113</v>
+      </c>
+      <c r="N11">
+        <v>122</v>
+      </c>
+      <c r="O11">
+        <v>14</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11">
+        <v>35.550967665213591</v>
+      </c>
+      <c r="R11">
+        <v>-24.44</v>
+      </c>
+      <c r="S11" s="2">
+        <v>-0.1153</v>
+      </c>
+      <c r="T11" s="2">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="U11">
+        <v>6.53</v>
+      </c>
+      <c r="V11">
+        <v>1.88</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
